--- a/report/reliability/comb/Instituto de Ciências Atmosféricas - ICAT-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Atmosféricas - ICAT-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="479">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1011,16 +1014,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1845,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2230,16 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3127,7 +3135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="801">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3389,7 +3397,9 @@
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3415,16 +3425,14 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3432,7 +3440,9 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3446,23 +3456,23 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3476,22 +3486,22 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3505,22 +3515,22 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3546,16 +3556,14 @@
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3563,7 +3571,9 @@
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3577,23 +3587,23 @@
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3607,22 +3617,22 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3636,21 +3646,20 @@
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3678,14 +3687,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3694,6 +3702,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3709,14 +3718,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3724,6 +3732,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3739,20 +3748,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3768,19 +3777,17 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3808,13 +3815,14 @@
     <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3823,7 +3831,6 @@
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3839,13 +3846,14 @@
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3853,7 +3861,6 @@
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3869,20 +3876,20 @@
     <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3898,19 +3905,19 @@
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3938,13 +3945,14 @@
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3953,7 +3961,6 @@
     <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3969,13 +3976,14 @@
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3983,7 +3991,6 @@
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3999,20 +4006,20 @@
     <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4028,19 +4035,21 @@
     <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4116,31 +4125,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7048592283628781</v>
+        <v>0.6686146267257466</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7153544106889865</v>
+        <v>0.7196536692635751</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8790806056958973</v>
+        <v>0.8849998915531424</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.1731631173266974</v>
+        <v>0.1649009967568457</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.5131406828417995</v>
+        <v>2.5670165447614752</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.056581646304703734</v>
+        <v>0.06115830620148533</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.189890710382514</v>
+        <v>1.6229508196721312</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.603257198146834</v>
+        <v>0.49368895134191354</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.11657544893201932</v>
+        <v>0.09821966984261651</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4199,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6705548929682409</v>
+        <v>0.6685975743888309</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6788122328715642</v>
+        <v>0.7186437941810404</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8548352064198569</v>
+        <v>0.8878857808009349</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.16116617951645515</v>
+        <v>0.17549649293306116</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.113443606337978</v>
+        <v>2.554213411036174</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06327674456308528</v>
+        <v>0.06222014879961689</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05653206489050365</v>
+        <v>0.07060155349545226</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.10085870611100489</v>
+        <v>0.11035449373209692</v>
       </c>
     </row>
     <row r="12">
@@ -4219,28 +4228,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6596328155090513</v>
+        <v>0.6390994638455739</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6705202143389093</v>
+        <v>0.6917335073315762</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8519428042334778</v>
+        <v>0.8649520027402087</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.15612381227833325</v>
+        <v>0.15753685067428272</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.0350875638501824</v>
+        <v>2.243946467693509</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.065539597673841</v>
+        <v>0.06622009972315622</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05475314584093841</v>
+        <v>0.07193037403110777</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.11314169454444277</v>
+        <v>0.08618732418915631</v>
       </c>
     </row>
     <row r="13">
@@ -4248,28 +4257,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6716075690419366</v>
+        <v>0.6353352891808276</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.6839802511768761</v>
+        <v>0.6897321311539769</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8504007541322339</v>
+        <v>0.8648707305833618</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.16441052452720917</v>
+        <v>0.1562974131223113</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.1643592013602273</v>
+        <v>2.2230214611628734</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.0631883211667978</v>
+        <v>0.06710047609082731</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0518029491549691</v>
+        <v>0.07229772737451513</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.11314169454444277</v>
+        <v>0.09119257106839906</v>
       </c>
     </row>
     <row r="14">
@@ -4277,28 +4286,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6774921598508798</v>
+        <v>0.6611189616370964</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.6926320135521553</v>
+        <v>0.6877851330959371</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8537506446081291</v>
+        <v>0.8580609287038212</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.17002612787316632</v>
+        <v>0.15510346130189623</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.253429257733331</v>
+        <v>2.202922429402695</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.06222345792377071</v>
+        <v>0.06313206897740378</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.048641079993160925</v>
+        <v>0.054896826726588695</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.11314169454444277</v>
+        <v>0.10512284353905932</v>
       </c>
     </row>
     <row r="15">
@@ -4306,28 +4315,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7013088655012487</v>
+        <v>0.6483791730697093</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.705727023466643</v>
+        <v>0.6862798355054779</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8376743560758577</v>
+        <v>0.8595663030271478</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.17899452041368494</v>
+        <v>0.15418824793775984</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.3982053390711053</v>
+        <v>2.1875541108785215</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05728672892641804</v>
+        <v>0.0641728024808664</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04892315307000952</v>
+        <v>0.05594414587738377</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.12581556288967832</v>
+        <v>0.10512284353905932</v>
       </c>
     </row>
     <row r="16">
@@ -4335,28 +4344,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7056790285814484</v>
+        <v>0.6532941758785678</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7136232398984995</v>
+        <v>0.6927348260681571</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8420623768577495</v>
+        <v>0.8622287239264323</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.18469621198517006</v>
+        <v>0.15816163634804867</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.491903461878575</v>
+        <v>2.2545178719857746</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.056685118544589755</v>
+        <v>0.06345936404685525</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04667004539543294</v>
+        <v>0.05449993391698458</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1361728176307717</v>
+        <v>0.10512284353905932</v>
       </c>
     </row>
     <row r="17">
@@ -4364,28 +4373,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.6941907250957272</v>
+        <v>0.6638434568580573</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7090455819062895</v>
+        <v>0.7244794100017957</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8597528931743457</v>
+        <v>0.8822985354986261</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.18136272391129077</v>
+        <v>0.17973916409429858</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.436964479013068</v>
+        <v>2.6294928085284575</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.05861217345269346</v>
+        <v>0.06302598215734376</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.057848659765381</v>
+        <v>0.06684133588847818</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.12581556288967832</v>
+        <v>0.1060903563040425</v>
       </c>
     </row>
     <row r="18">
@@ -4393,28 +4402,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.6992000498411315</v>
+        <v>0.657795350272253</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7123898514694491</v>
+        <v>0.7140416925454494</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8616973538166159</v>
+        <v>0.8742808480802247</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.18379029913694306</v>
+        <v>0.17224329146630124</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.4769287701048435</v>
+        <v>2.4970132845639976</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.05767229096805683</v>
+        <v>0.062430238395821826</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.057470637225653744</v>
+        <v>0.06841495062294171</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.12000920331959589</v>
+        <v>0.11126433775577826</v>
       </c>
     </row>
     <row r="19">
@@ -4422,28 +4431,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.70905909751859</v>
+        <v>0.6609132583976376</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7187126710733879</v>
+        <v>0.7177261542458021</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.882224996828679</v>
+        <v>0.874717862559922</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.18849634292770362</v>
+        <v>0.17484141367115857</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.5550837068131864</v>
+        <v>2.542659070407796</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05608682870824071</v>
+        <v>0.06192438980810816</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06066959730667014</v>
+        <v>0.06756261522339586</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.12000920331959589</v>
+        <v>0.11035449373209692</v>
       </c>
     </row>
     <row r="20">
@@ -4451,28 +4460,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6885125779613043</v>
+        <v>0.6687470779421952</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7028786403418742</v>
+        <v>0.7230871503333629</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8716856465890197</v>
+        <v>0.8874015732435852</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.1769934110184778</v>
+        <v>0.17871472099233693</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.3656281095058977</v>
+        <v>2.6112444807232844</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.059892034316501926</v>
+        <v>0.061135415802113395</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06240063320663385</v>
+        <v>0.07506445078168456</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.12000920331959589</v>
+        <v>0.10512284353905932</v>
       </c>
     </row>
     <row r="21">
@@ -4480,28 +4489,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6782013901703882</v>
+        <v>0.6399432925748715</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.6878295618897233</v>
+        <v>0.7089900105300591</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.85516045350583</v>
+        <v>0.873566158351032</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.16687988712710483</v>
+        <v>0.16876254848788408</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.203378276474539</v>
+        <v>2.436308154993051</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06156145355157268</v>
+        <v>0.06677694024165645</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0598122663333384</v>
+        <v>0.07563112150610138</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1113220064970801</v>
+        <v>0.09821966984261651</v>
       </c>
     </row>
     <row r="22">
@@ -4509,33 +4518,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.675930530254542</v>
+        <v>0.622776769238591</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.6849328624754546</v>
+        <v>0.6890539789021045</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8560355692516969</v>
+        <v>0.8615271646371163</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.16501736720482968</v>
+        <v>0.15588023876673537</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.1739266997406053</v>
+        <v>2.215992269234308</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.062116485801798245</v>
+        <v>0.06973877127878962</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06045275089123582</v>
+        <v>0.07417548058201333</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.09473709065830443</v>
+        <v>0.08618732418915631</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.629780902603365</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6904611878364065</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8638967785004152</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.15674747804291964</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.230612642758005</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.06826684343054769</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07485960809326571</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.08258063769783186</v>
       </c>
     </row>
     <row r="24">
@@ -4544,458 +4577,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>61.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.578700011779753</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6037618121333478</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.5760768156168433</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4644908582178046</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.19672131147541</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.092698069476766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6387513552627728</v>
+        <v>0.24871225298981758</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6507348715963293</v>
+        <v>0.3663094572112554</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6301073354926363</v>
+        <v>0.2886059441131778</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5206915895411561</v>
+        <v>0.22219907071619432</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.622950819672131</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.226973708306057</v>
+        <v>0.1795562228341584</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5745490933802028</v>
+        <v>0.5129119789585169</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5735385451811896</v>
+        <v>0.5567890248015496</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5683597032151347</v>
+        <v>0.5297161476113873</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.46662030423349654</v>
+        <v>0.3707182254751712</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.360655737704918</v>
+        <v>3.19672131147541</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0333245196169158</v>
+        <v>1.092698069476766</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5489444681663097</v>
+        <v>0.5423772241089753</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5212254038661567</v>
+        <v>0.5699344719965962</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5121816041178515</v>
+        <v>0.5430531072283532</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.39514791630694196</v>
+        <v>0.38568438193094845</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7704918032786887</v>
+        <v>3.622950819672131</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3710512101176335</v>
+        <v>1.226973708306057</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.3261596014414137</v>
+        <v>0.43289930776536073</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.43767876471853856</v>
+        <v>0.5825974985312775</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.45856952021700015</v>
+        <v>0.6186706414640991</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2111187087721586</v>
+        <v>0.40050229045408764</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.22950819672131148</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.883052331838282</v>
+        <v>0.24958982745138697</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.2709828958743903</v>
+        <v>0.44295203293187785</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.3845636533870786</v>
+        <v>0.5923042311789367</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4017082755074697</v>
+        <v>0.6274769111454847</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.1618440067557217</v>
+        <v>0.32240972092476433</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.21311475409836064</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>0.8188356387448512</v>
+        <v>0.883052331838282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.46424077776535705</v>
+        <v>0.4018878825266481</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4156173482329534</v>
+        <v>0.550162561798514</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.37028658898215794</v>
+        <v>0.583081600813266</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2923968154916207</v>
+        <v>0.28696022481956185</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.80327868852459</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4002341724529215</v>
+        <v>0.8188356387448512</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.47928501520838607</v>
+        <v>0.33322807333095705</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3930028439653311</v>
+        <v>0.3213117809448863</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.34371783661620214</v>
+        <v>0.26751150467157647</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2820527092403417</v>
+        <v>0.29410905847084273</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.0327868852459017</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6017408562223177</v>
+        <v>0.27659127289275987</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.39390880514440446</v>
+        <v>0.46584017481325385</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.34916286476914576</v>
+        <v>0.4008128398368</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.25224181116249417</v>
+        <v>0.3628228399422691</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.20541446948080538</v>
+        <v>0.26953145725006955</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.180327868852459</v>
+        <v>2.80327868852459</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4549707525274804</v>
+        <v>1.4002341724529215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.48945250842572025</v>
+        <v>0.49903726534621284</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4563204514846949</v>
+        <v>0.37325721333838996</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.383689703080067</v>
+        <v>0.33376337189826677</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3262230710881761</v>
+        <v>0.2766388343736156</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9344262295081966</v>
+        <v>3.0327868852459017</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3646593281721313</v>
+        <v>1.6017408562223177</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5334606478225263</v>
+        <v>0.42999859284013286</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5505347632742285</v>
+        <v>0.3321770017700468</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.511208418564337</v>
+        <v>0.2443932909606961</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.3949027380018086</v>
+        <v>0.21967553838892648</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.5901639344262295</v>
+        <v>1.180327868852459</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.22986515765385</v>
+        <v>1.4549707525274804</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>61.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5452359211783484</v>
+        <v>0.5373810518782584</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5678853954135498</v>
+        <v>0.43772952268986715</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5274264220483186</v>
+        <v>0.38194042710054643</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.41293526417688114</v>
+        <v>0.3593532981889957</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.9344262295081966</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3646593281721313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>61.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6006399231455591</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5743590139621254</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.542989095192698</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4554357144139005</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.5901639344262295</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.22986515765385</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>61.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5667480645858481</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5651610934275916</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5301383725593806</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4192376720134222</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.3442622950819672</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1956204233456835</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4426229508196721</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.4262295081967213</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03278688524590164</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.45901639344262296</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3770491803278688</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08196721311475409</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5003,25 +5015,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.04918032786885246</v>
-      </c>
-      <c r="C46" t="n" s="110">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.45901639344262296</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5029,25 +5041,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.9344262295081968</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03278688524590164</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.03278688524590164</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5055,22 +5067,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.9344262295081968</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04918032786885246</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.01639344262295082</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
         <v>0.0</v>
@@ -5081,25 +5093,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.08196721311475409</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16393442622950818</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.04918032786885246</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.32786885245901637</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.32786885245901637</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04918032786885246</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5107,25 +5119,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.08196721311475409</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.13114754098360656</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.16393442622950818</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.11475409836065574</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.3114754098360656</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.19672131147540983</v>
+        <v>0.0</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5133,22 +5145,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5245901639344263</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11475409836065574</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.11475409836065574</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.14754098360655737</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.09836065573770492</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5159,25 +5171,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.22950819672131148</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.18032786885245902</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.09836065573770492</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4098360655737705</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.08196721311475409</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5185,25 +5197,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2786885245901639</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C53" t="n" s="110">
         <v>0.13114754098360656</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3770491803278688</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.14754098360655737</v>
+        <v>0.11475409836065574</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.06557377049180328</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5211,27 +5223,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.36065573770491804</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C54" t="n" s="110">
         <v>0.11475409836065574</v>
       </c>
       <c r="D54" t="n" s="111">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.36065573770491804</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="D57" t="n" s="111">
         <v>0.39344262295081966</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.08196721311475409</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.04918032786885246</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5262,7 +5352,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5311,31 +5401,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8459207376749562</v>
+        <v>0.8956331877729258</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8500338340341065</v>
+        <v>0.9941951669816722</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8704679671417893</v>
+        <v>0.9965203779676479</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.586271270207284</v>
+        <v>0.9827853571988783</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.668170740775138</v>
+        <v>171.27024392306976</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03297097760350533</v>
+        <v>0.002640344052735195</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.487704918032787</v>
+        <v>0.16939890710382513</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9825839971602478</v>
+        <v>0.6458498587697141</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5392569786240906</v>
+        <v>0.9892555226725055</v>
       </c>
     </row>
     <row r="7">
@@ -5382,118 +5472,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8312817987854915</v>
+        <v>0.9825570251102167</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8387368464742043</v>
+        <v>0.9839803779289154</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.810788092204788</v>
+        <v>0.9684659199033387</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6341929396807724</v>
+        <v>0.9684659199033385</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.201044554421667</v>
+        <v>61.42344517009521</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03727569160823163</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.027553977027759854</v>
-      </c>
+        <v>0.004274376919824987</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5619608752608453</v>
+        <v>0.9684659199033386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7933113694287314</v>
+        <v>0.7118155619596542</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7994107690310991</v>
+        <v>0.9952952838041322</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7820281942114194</v>
+        <v>0.9906346290207907</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5705274458226612</v>
+        <v>0.9906346290207906</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.985312497434314</v>
+        <v>211.5526723329897</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04570624795363545</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.048774947473375865</v>
-      </c>
+        <v>0.006743456933883689</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.4675080852017757</v>
+        <v>0.9906346290207905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7903517190763847</v>
+        <v>0.6823428815733219</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7989565715045115</v>
+        <v>0.994598744502637</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7592565913307111</v>
+        <v>0.9892555226725056</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5698338640868187</v>
+        <v>0.9892555226725055</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.9740496741600273</v>
+        <v>184.14213972811072</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.047521701914826756</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.023688923253616077</v>
-      </c>
+        <v>0.007276901449252202</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5619608752608453</v>
+        <v>0.9892555226725055</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.800953153518556</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.799412984554537</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7500611362316492</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5705308312388834</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.9853675612013215</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.043485587920687616</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.019088219568086203</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5165530819873358</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5502,283 +5562,202 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>61.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9983337646683377</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9990460001515807</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9993514410608445</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9978052395869702</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.24958982745138697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>61.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7745652886977175</v>
+        <v>0.9924777567948524</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7872063827559295</v>
+        <v>0.9916136590098347</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6989503820594172</v>
+        <v>0.9885579011440899</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.617505705508038</v>
+        <v>0.9749585846576159</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.19672131147541</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.092698069476766</v>
+        <v>0.883052331838282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>61.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.846286398228012</v>
+        <v>0.9916102675452368</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8447019251919523</v>
+        <v>0.992076021919506</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.779637623851745</v>
+        <v>0.989632420324068</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7080194346089955</v>
+        <v>0.9751527519717021</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.622950819672131</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.226973708306057</v>
+        <v>0.8188356387448512</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>61.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8416079154206415</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8453282905228309</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8085699034554825</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7310736004841153</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.360655737704918</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0333245196169158</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>61.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8576957075627824</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8446988678632444</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8121704368752933</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7034339210440445</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7704918032786887</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3710512101176335</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.03278688524590164</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.08196721311475409</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.01639344262295082</v>
       </c>
-      <c r="E27" t="n" s="227">
-        <v>0.4426229508196721</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.4262295081967213</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.45901639344262296</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.45901639344262296</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5808,8 +5787,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="230">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5823,66 +5802,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="244">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="258">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="258">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="258">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="258">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="258">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="258">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="258">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="258">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="258">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8150214592274678</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8193766422387292</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.6940203553082781</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.694020355308278</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>4.53638251660506</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.04655841345765433</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.918032786885246</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.3819681854419696</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.694020355308278</v>
+      <c r="A6" t="n" s="259">
+        <v>0.705377358490566</v>
+      </c>
+      <c r="B6" t="n" s="260">
+        <v>0.8318813090662812</v>
+      </c>
+      <c r="C6" t="n" s="261">
+        <v>0.7730718525919213</v>
+      </c>
+      <c r="D6" t="n" s="262">
+        <v>0.6225550342736997</v>
+      </c>
+      <c r="E6" t="n" s="263">
+        <v>4.948178601951243</v>
+      </c>
+      <c r="F6" t="n" s="264">
+        <v>0.03396440498638667</v>
+      </c>
+      <c r="G6" t="n" s="265">
+        <v>2.251366120218579</v>
+      </c>
+      <c r="H6" t="n" s="266">
+        <v>0.9825434449068021</v>
+      </c>
+      <c r="I6" t="n" s="267">
+        <v>0.6031785432132292</v>
       </c>
     </row>
     <row r="7">
@@ -5896,86 +5875,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="271">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="285">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="285">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="285">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="285">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="285">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="285">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="285">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="281">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="286">
+        <v>0.8150214592274678</v>
+      </c>
+      <c r="C11" t="n" s="287">
+        <v>0.8193766422387292</v>
+      </c>
+      <c r="D11" t="n" s="288">
+        <v>0.6940203553082781</v>
+      </c>
+      <c r="E11" t="n" s="289">
         <v>0.694020355308278</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="F11" t="n" s="290">
+        <v>4.53638251660506</v>
+      </c>
+      <c r="G11" t="n" s="291">
+        <v>0.04655841345765433</v>
+      </c>
+      <c r="H11" s="292"/>
+      <c r="I11" t="n" s="293">
         <v>0.694020355308278</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.48166425358222864</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.694020355308278</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.694020355308278</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.694020355308278</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="281">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.48166425358222864</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.694020355308278</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.48166425358222864</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.694020355308278</v>
+      <c r="B12" t="n" s="286">
+        <v>0.32118055555555536</v>
+      </c>
+      <c r="C12" t="n" s="287">
+        <v>0.7264928118004461</v>
+      </c>
+      <c r="D12" t="n" s="288">
+        <v>0.5704662042995924</v>
+      </c>
+      <c r="E12" t="n" s="289">
+        <v>0.5704662042995923</v>
+      </c>
+      <c r="F12" t="n" s="290">
+        <v>2.6562110362905296</v>
+      </c>
+      <c r="G12" t="n" s="291">
+        <v>0.048780304944368885</v>
+      </c>
+      <c r="H12" s="292"/>
+      <c r="I12" t="n" s="293">
+        <v>0.5704662042995923</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="281">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="286">
+        <v>0.37311804494872347</v>
+      </c>
+      <c r="C13" t="n" s="287">
+        <v>0.7524783134937503</v>
+      </c>
+      <c r="D13" t="n" s="288">
+        <v>0.6031785432132291</v>
+      </c>
+      <c r="E13" t="n" s="289">
+        <v>0.6031785432132291</v>
+      </c>
+      <c r="F13" t="n" s="290">
+        <v>3.040050042139443</v>
+      </c>
+      <c r="G13" t="n" s="291">
+        <v>0.050016909709712364</v>
+      </c>
+      <c r="H13" s="292"/>
+      <c r="I13" t="n" s="293">
+        <v>0.6031785432132292</v>
       </c>
     </row>
     <row r="14">
@@ -5984,174 +5993,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="297">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="311">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="311">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="311">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="311">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="311">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="311">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="311">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="307">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="312">
         <v>61.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9088034576558622</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9203315585451468</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7667087481209884</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.694020355308278</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="313">
+        <v>0.6903584495455529</v>
+      </c>
+      <c r="D18" t="n" s="314">
+        <v>0.8375468699371064</v>
+      </c>
+      <c r="E18" t="n" s="315">
+        <v>0.693273052627447</v>
+      </c>
+      <c r="F18" t="n" s="316">
+        <v>0.6361688544428844</v>
+      </c>
+      <c r="G18" t="n" s="317">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="H18" t="n" s="318">
+        <v>0.27659127289275987</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="307">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="312">
+        <v>61.0</v>
+      </c>
+      <c r="C19" t="n" s="313">
+        <v>0.9087668898288607</v>
+      </c>
+      <c r="D19" t="n" s="314">
+        <v>0.8851546460299892</v>
+      </c>
+      <c r="E19" t="n" s="315">
+        <v>0.8074745638223108</v>
+      </c>
+      <c r="F19" t="n" s="316">
+        <v>0.7206202038944436</v>
+      </c>
+      <c r="G19" t="n" s="317">
         <v>2.80327868852459</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="318">
         <v>1.4002341724529215</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="307">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="312">
+        <v>61.0</v>
+      </c>
+      <c r="C20" t="n" s="313">
+        <v>0.9266147846017089</v>
+      </c>
+      <c r="D20" t="n" s="314">
+        <v>0.8725499565577153</v>
+      </c>
+      <c r="E20" t="n" s="315">
+        <v>0.7811143863659562</v>
+      </c>
+      <c r="F20" t="n" s="316">
+        <v>0.7137834167610291</v>
+      </c>
+      <c r="G20" t="n" s="317">
+        <v>3.0327868852459017</v>
+      </c>
+      <c r="H20" t="n" s="318">
+        <v>1.6017408562223177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="322">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="336">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="336">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="336">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="332">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="337">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="C25" t="n" s="338">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="D25" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="332">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>61.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9311111142836623</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9203315585451468</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7667087481209883</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6940203553082778</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.0327868852459017</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6017408562223177</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="337">
         <v>0.08196721311475409</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="338">
         <v>0.16393442622950818</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="339">
         <v>0.04918032786885246</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="340">
         <v>0.32786885245901637</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="341">
         <v>0.32786885245901637</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="342">
         <v>0.04918032786885246</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="332">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="337">
         <v>0.08196721311475409</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="338">
         <v>0.13114754098360656</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="339">
         <v>0.16393442622950818</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="340">
         <v>0.11475409836065574</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="341">
         <v>0.3114754098360656</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="342">
         <v>0.19672131147540983</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="343">
         <v>0.0</v>
       </c>
     </row>
@@ -6181,8 +6247,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="345">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6196,66 +6262,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="359">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="373">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="373">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="373">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="373">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="373">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="373">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="373">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="373">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="373">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.822139575585211</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8223326145544876</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.6982723854948216</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>4.628495052665042</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.045509979017787604</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.4672131147540983</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.1175451238429421</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.6982723854948216</v>
+      <c r="A6" t="n" s="374">
+        <v>0.7023720880757365</v>
+      </c>
+      <c r="B6" t="n" s="375">
+        <v>0.8220426444289658</v>
+      </c>
+      <c r="C6" t="n" s="376">
+        <v>0.7689375566693641</v>
+      </c>
+      <c r="D6" t="n" s="377">
+        <v>0.6062642713984351</v>
+      </c>
+      <c r="E6" t="n" s="378">
+        <v>4.619323780077387</v>
+      </c>
+      <c r="F6" t="n" s="379">
+        <v>0.030418980678223368</v>
+      </c>
+      <c r="G6" t="n" s="380">
+        <v>2.5956284153005464</v>
+      </c>
+      <c r="H6" t="n" s="381">
+        <v>0.7555100168425856</v>
+      </c>
+      <c r="I6" t="n" s="382">
+        <v>0.5481576333888644</v>
       </c>
     </row>
     <row r="7">
@@ -6269,86 +6335,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="386">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="400">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="400">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="400">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="400">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="400">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="400">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="400">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="400">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.48758432434462906</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.6982723854948217</v>
+      <c r="A11" t="s" s="396">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="401">
+        <v>0.8390129259694477</v>
+      </c>
+      <c r="C11" t="n" s="402">
+        <v>0.8422785918330391</v>
+      </c>
+      <c r="D11" t="n" s="403">
+        <v>0.7275313265275389</v>
+      </c>
+      <c r="E11" t="n" s="404">
+        <v>0.7275313265275387</v>
+      </c>
+      <c r="F11" t="n" s="405">
+        <v>5.340293379459427</v>
+      </c>
+      <c r="G11" t="n" s="406">
+        <v>0.040646091824086274</v>
+      </c>
+      <c r="H11" s="407"/>
+      <c r="I11" t="n" s="408">
+        <v>0.7275313265275387</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.48758432434462906</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.6982723854948217</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.48758432434462906</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.6982723854948217</v>
+      <c r="A12" t="s" s="396">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="401">
+        <v>0.27149877149877155</v>
+      </c>
+      <c r="C12" t="n" s="402">
+        <v>0.7081418862870776</v>
+      </c>
+      <c r="D12" t="n" s="403">
+        <v>0.5481576333888645</v>
+      </c>
+      <c r="E12" t="n" s="404">
+        <v>0.5481576333888643</v>
+      </c>
+      <c r="F12" t="n" s="405">
+        <v>2.4263224252302984</v>
+      </c>
+      <c r="G12" t="n" s="406">
+        <v>0.04527033344429835</v>
+      </c>
+      <c r="H12" s="407"/>
+      <c r="I12" t="n" s="408">
+        <v>0.5481576333888644</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="396">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="401">
+        <v>0.29612756264236895</v>
+      </c>
+      <c r="C13" t="n" s="402">
+        <v>0.7039109555366856</v>
+      </c>
+      <c r="D13" t="n" s="403">
+        <v>0.5431038542789022</v>
+      </c>
+      <c r="E13" t="n" s="404">
+        <v>0.5431038542789022</v>
+      </c>
+      <c r="F13" t="n" s="405">
+        <v>2.3773623803358936</v>
+      </c>
+      <c r="G13" t="n" s="406">
+        <v>0.04917952553291708</v>
+      </c>
+      <c r="H13" s="407"/>
+      <c r="I13" t="n" s="408">
+        <v>0.5431038542789022</v>
       </c>
     </row>
     <row r="14">
@@ -6357,165 +6453,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="412">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="426">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="426">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="426">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="426">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="426">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="426">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="426">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="427">
         <v>61.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9237809904756665</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9214858613931148</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7700184120654033</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.6982723854948216</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.5901639344262295</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.22986515765385</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="428">
+        <v>0.6377942175392346</v>
+      </c>
+      <c r="D18" t="n" s="429">
+        <v>0.8117144387561072</v>
+      </c>
+      <c r="E18" t="n" s="430">
+        <v>0.6356189961520776</v>
+      </c>
+      <c r="F18" t="n" s="431">
+        <v>0.5870871094431978</v>
+      </c>
+      <c r="G18" t="n" s="432">
+        <v>0.9672131147540983</v>
+      </c>
+      <c r="H18" t="n" s="433">
+        <v>0.1795562228341584</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="422">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="427">
         <v>61.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9191580979536019</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9214858613931148</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7700184120654033</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.6982723854948216</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.3442622950819672</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1956204233456835</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="428">
+        <v>0.9189719568426126</v>
+      </c>
+      <c r="D19" t="n" s="429">
+        <v>0.8813375908641904</v>
+      </c>
+      <c r="E19" t="n" s="430">
+        <v>0.8098980583251424</v>
+      </c>
+      <c r="F19" t="n" s="431">
+        <v>0.7423304432537172</v>
+      </c>
+      <c r="G19" t="n" s="432">
+        <v>3.19672131147541</v>
+      </c>
+      <c r="H19" t="n" s="433">
+        <v>1.092698069476766</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="422">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="427">
+        <v>61.0</v>
+      </c>
+      <c r="C20" t="n" s="428">
+        <v>0.9355141344637639</v>
+      </c>
+      <c r="D20" t="n" s="429">
+        <v>0.8832991941825852</v>
+      </c>
+      <c r="E20" t="n" s="430">
+        <v>0.8136617510356069</v>
+      </c>
+      <c r="F20" t="n" s="431">
+        <v>0.7446672285907524</v>
+      </c>
+      <c r="G20" t="n" s="432">
+        <v>3.622950819672131</v>
+      </c>
+      <c r="H20" t="n" s="433">
+        <v>1.226973708306057</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="437">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="451">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="451">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="451">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="451">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="451">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="451">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13114754098360656</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="451">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="447">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="452">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="C25" t="n" s="453">
+        <v>0.9672131147540983</v>
+      </c>
+      <c r="D25" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="447">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="452">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="C26" t="n" s="453">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="D26" t="n" s="454">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="E26" t="n" s="455">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="F26" t="n" s="456">
         <v>0.3770491803278688</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.14754098360655737</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.36065573770491804</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="G26" t="n" s="457">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="H26" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="447">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="452">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="C27" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="454">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="E27" t="n" s="455">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="F27" t="n" s="456">
         <v>0.11475409836065574</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.39344262295081966</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="457">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="H27" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6545,8 +6707,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="460">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6560,66 +6722,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9825570251102167</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9839803779289154</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9684659199033387</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9684659199033385</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>61.42344517009521</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.004274376919824987</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.22131147540983606</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>0.8442185250471509</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9684659199033386</v>
+      <c r="A6" t="n" s="489">
+        <v>0.6518559659353884</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6527578364564879</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.48451410898513325</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.48451410898513325</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.8798346082033106</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.08891199067992661</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.5573770491803278</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.2148331869566076</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4845141089851332</v>
       </c>
     </row>
     <row r="7">
@@ -6633,81 +6795,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9684659199033386</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9684659199033386</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9379262380142203</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9684659199033386</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9684659199033386</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9684659199033386</v>
+      <c r="A11" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.4845141089851332</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.4845141089851332</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.23475392180565735</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.4845141089851332</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.4845141089851332</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.4845141089851332</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9379262380142203</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9684659199033386</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9379262380142203</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9684659199033386</v>
+      <c r="A12" t="s" s="511">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.23475392180565735</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.4845141089851332</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.23475392180565735</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.4845141089851332</v>
       </c>
     </row>
     <row r="13">
@@ -6721,84 +6883,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="527">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="541">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>61.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9926735153503895</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9920851576108117</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9763176117221175</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9684659199033387</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.22950819672131148</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.883052331838282</v>
+      <c r="C17" t="n" s="543">
+        <v>0.8709703824796147</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8615434141658601</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.5996949352757578</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.48451410898513314</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.180327868852459</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.4549707525274804</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>61.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9914741728321489</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9920851576108117</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9763176117221175</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9684659199033385</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.21311475409836064</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>0.8188356387448512</v>
+      <c r="C18" t="n" s="543">
+        <v>0.8518096180419612</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8615434141658601</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.5996949352757579</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.48451410898513314</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>1.9344262295081966</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.3646593281721313</v>
       </c>
     </row>
     <row r="19">
@@ -6812,56 +6974,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="552">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>43</v>
+      <c r="F22" t="s" s="566">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="566">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.9344262295081968</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.9344262295081968</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="E24" t="n" s="571">
+      <c r="A24" t="s" s="562">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6891,8 +7071,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="573">
-        <v>48</v>
+      <c r="A1" t="s" s="574">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6906,66 +7086,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="587">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="601">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="601">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="601">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="601">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="601">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="601">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="601">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="601">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="601">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="602">
-        <v>0.6518559659353884</v>
-      </c>
-      <c r="B6" t="n" s="603">
-        <v>0.6527578364564879</v>
-      </c>
-      <c r="C6" t="n" s="604">
-        <v>0.48451410898513325</v>
-      </c>
-      <c r="D6" t="n" s="605">
-        <v>0.48451410898513325</v>
-      </c>
-      <c r="E6" t="n" s="606">
-        <v>1.8798346082033106</v>
-      </c>
-      <c r="F6" t="n" s="607">
-        <v>0.08891199067992661</v>
-      </c>
-      <c r="G6" t="n" s="608">
-        <v>1.5573770491803278</v>
-      </c>
-      <c r="H6" t="n" s="609">
-        <v>1.2148331869566076</v>
-      </c>
-      <c r="I6" t="n" s="610">
-        <v>0.4845141089851332</v>
+      <c r="A6" t="n" s="603">
+        <v>0.822139575585211</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.8223326145544876</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.6982723854948216</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>4.628495052665042</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.045509979017787604</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>1.4672131147540983</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.1175451238429421</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.6982723854948216</v>
       </c>
     </row>
     <row r="7">
@@ -6979,81 +7159,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="614">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="628">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="628">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="628">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="628">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="628">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="628">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="628">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="628">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="624">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="629">
-        <v>0.4845141089851332</v>
-      </c>
-      <c r="C11" t="n" s="630">
-        <v>0.4845141089851332</v>
-      </c>
-      <c r="D11" t="n" s="631">
-        <v>0.23475392180565735</v>
-      </c>
-      <c r="E11" t="n" s="632">
-        <v>0.4845141089851332</v>
-      </c>
-      <c r="F11" s="633"/>
-      <c r="G11" s="634"/>
-      <c r="H11" t="n" s="635">
-        <v>0.4845141089851332</v>
-      </c>
-      <c r="I11" t="n" s="636">
-        <v>0.4845141089851332</v>
+      <c r="A11" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.48758432434462906</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.6982723854948217</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="624">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="629">
-        <v>0.23475392180565735</v>
-      </c>
-      <c r="C12" t="n" s="630">
-        <v>0.4845141089851332</v>
-      </c>
-      <c r="D12" s="631"/>
-      <c r="E12" s="632"/>
-      <c r="F12" s="633"/>
-      <c r="G12" s="634"/>
-      <c r="H12" t="n" s="635">
-        <v>0.23475392180565735</v>
-      </c>
-      <c r="I12" t="n" s="636">
-        <v>0.4845141089851332</v>
+      <c r="A12" t="s" s="625">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.48758432434462906</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.6982723854948217</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.48758432434462906</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.6982723854948217</v>
       </c>
     </row>
     <row r="13">
@@ -7067,84 +7247,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="640">
-        <v>30</v>
+      <c r="A15" t="s" s="641">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="654">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="654">
+      <c r="B16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="654">
+      <c r="C16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="654">
+      <c r="D16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="654">
+      <c r="E16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="654">
+      <c r="F16" t="s" s="655">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="654">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="650">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="655">
+      <c r="A17" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>61.0</v>
       </c>
-      <c r="C17" t="n" s="656">
-        <v>0.8709703824796147</v>
-      </c>
-      <c r="D17" t="n" s="657">
-        <v>0.8615434141658601</v>
-      </c>
-      <c r="E17" t="n" s="658">
-        <v>0.5996949352757578</v>
-      </c>
-      <c r="F17" t="n" s="659">
-        <v>0.48451410898513314</v>
-      </c>
-      <c r="G17" t="n" s="660">
-        <v>1.180327868852459</v>
-      </c>
-      <c r="H17" t="n" s="661">
-        <v>1.4549707525274804</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9237809904756665</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.9214858613931148</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.7700184120654033</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.6982723854948216</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>1.5901639344262295</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.22986515765385</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="650">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="655">
+      <c r="A18" t="s" s="651">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>61.0</v>
       </c>
-      <c r="C18" t="n" s="656">
-        <v>0.8518096180419612</v>
-      </c>
-      <c r="D18" t="n" s="657">
-        <v>0.8615434141658601</v>
-      </c>
-      <c r="E18" t="n" s="658">
-        <v>0.5996949352757579</v>
-      </c>
-      <c r="F18" t="n" s="659">
-        <v>0.48451410898513314</v>
-      </c>
-      <c r="G18" t="n" s="660">
-        <v>1.9344262295081966</v>
-      </c>
-      <c r="H18" t="n" s="661">
-        <v>1.3646593281721313</v>
+      <c r="C18" t="n" s="657">
+        <v>0.9191580979536019</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.9214858613931148</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.7700184120654033</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.6982723854948216</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>1.3442622950819672</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.1956204233456835</v>
       </c>
     </row>
     <row r="19">
@@ -7158,74 +7338,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="665">
-        <v>36</v>
+      <c r="A21" t="s" s="666">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="679">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="679">
+      <c r="B22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="679">
+      <c r="C22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="679">
+      <c r="D22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="679">
+      <c r="E22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="679">
-        <v>43</v>
+      <c r="F22" t="s" s="680">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="680">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="675">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="680">
-        <v>0.5245901639344263</v>
-      </c>
-      <c r="C23" t="n" s="681">
+      <c r="A23" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="E23" t="n" s="684">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F23" t="n" s="685">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="G23" t="n" s="686">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="676">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.36065573770491804</v>
+      </c>
+      <c r="C24" t="n" s="682">
         <v>0.11475409836065574</v>
       </c>
-      <c r="D23" t="n" s="682">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="E23" t="n" s="683">
-        <v>0.14754098360655737</v>
-      </c>
-      <c r="F23" t="n" s="684">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="G23" t="n" s="685">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="675">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="680">
-        <v>0.22950819672131148</v>
-      </c>
-      <c r="C24" t="n" s="681">
-        <v>0.18032786885245902</v>
-      </c>
-      <c r="D24" t="n" s="682">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="E24" t="n" s="683">
-        <v>0.4098360655737705</v>
-      </c>
-      <c r="F24" t="n" s="684">
+      <c r="D24" t="n" s="683">
+        <v>0.39344262295081966</v>
+      </c>
+      <c r="E24" t="n" s="684">
         <v>0.08196721311475409</v>
       </c>
-      <c r="G24" t="n" s="685">
+      <c r="F24" t="n" s="685">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7255,8 +7435,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="687">
-        <v>49</v>
+      <c r="A1" t="s" s="688">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7270,65 +7450,65 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="701">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="715">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="715">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="715">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="715">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="715">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="715">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="715">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="715">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="715">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="716">
-        <v>0.7169514467936693</v>
-      </c>
-      <c r="B6" t="n" s="717">
-        <v>0.7239285210126887</v>
-      </c>
-      <c r="C6" t="n" s="718">
-        <v>0.8774998294961485</v>
-      </c>
-      <c r="D6" t="n" s="719">
-        <v>0.20774824176442463</v>
-      </c>
-      <c r="E6" t="n" s="720">
-        <v>2.622250308754138</v>
-      </c>
-      <c r="F6" t="n" s="721">
-        <v>0.05483442876903765</v>
-      </c>
-      <c r="G6" t="n" s="722">
-        <v>2.044262295081967</v>
-      </c>
-      <c r="H6" t="n" s="723">
-        <v>0.6286293529481248</v>
-      </c>
-      <c r="I6" t="n" s="724">
+      <c r="A6" t="n" s="717">
+        <v>0.6984357801407698</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.7620011855845034</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.8881207476735057</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.24252188840109384</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>3.2017016028248233</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.056054173308316864</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>1.4344262295081966</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.548295919463702</v>
+      </c>
+      <c r="I6" t="n" s="725">
         <v>0.1361728176307717</v>
       </c>
     </row>
@@ -7343,325 +7523,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="728">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="742">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="742">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="742">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="742">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="742">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="742">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="742">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="742">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="738">
+      <c r="A11" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.6893273042616452</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.7223977359906182</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.8521800071907581</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.22429013711836213</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>2.6022760965890543</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.05881653702993757</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.0516985015208627</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.1393012133356189</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.6704270042732318</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.7228694815456548</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.8553035465375805</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.22469989480160646</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>2.6084080727642447</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.060017960051440666</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.05264177095216095</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.1357095952164575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.6723224948146906</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.7247300902503749</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.8567231472016185</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.22632543459977564</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>2.6327980813796956</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.059903585588962666</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.05254996646444441</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.1393012133356189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="743">
-        <v>0.6687439517522638</v>
-      </c>
-      <c r="C11" t="n" s="744">
-        <v>0.6773379434676485</v>
-      </c>
-      <c r="D11" t="n" s="745">
-        <v>0.8484871144555737</v>
-      </c>
-      <c r="E11" t="n" s="746">
-        <v>0.18913205105945213</v>
-      </c>
-      <c r="F11" t="n" s="747">
-        <v>2.0992178341234102</v>
-      </c>
-      <c r="G11" t="n" s="748">
-        <v>0.06466539277921597</v>
-      </c>
-      <c r="H11" t="n" s="749">
-        <v>0.06880257826918545</v>
-      </c>
-      <c r="I11" t="n" s="750">
-        <v>0.11027632677399136</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="738">
+      <c r="B14" t="n" s="744">
+        <v>0.6980908921586888</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.7568248418566416</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.8913277506987389</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.256951353559938</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>3.112262155538405</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.05795848408511239</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.0780245955278282</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.1516966497757556</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="743">
-        <v>0.660663752703677</v>
-      </c>
-      <c r="C12" t="n" s="744">
-        <v>0.6723361402044925</v>
-      </c>
-      <c r="D12" t="n" s="745">
-        <v>0.8447309181666948</v>
-      </c>
-      <c r="E12" t="n" s="746">
-        <v>0.18566098376735404</v>
-      </c>
-      <c r="F12" t="n" s="747">
-        <v>2.0519081372724233</v>
-      </c>
-      <c r="G12" t="n" s="748">
-        <v>0.06644819212728777</v>
-      </c>
-      <c r="H12" t="n" s="749">
-        <v>0.06528025891521665</v>
-      </c>
-      <c r="I12" t="n" s="750">
-        <v>0.12291238310463709</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="738">
+      <c r="B15" t="n" s="744">
+        <v>0.6613402294696901</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.738039633664975</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.8667084611135198</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.23840931070508864</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>2.817371360372452</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.06258096961599648</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.07745032955854679</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>0.13363032065948377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="743">
-        <v>0.6867243363195529</v>
-      </c>
-      <c r="C13" t="n" s="744">
-        <v>0.6986314171286226</v>
-      </c>
-      <c r="D13" t="n" s="745">
-        <v>0.8459477515715037</v>
-      </c>
-      <c r="E13" t="n" s="746">
-        <v>0.20482026736811035</v>
-      </c>
-      <c r="F13" t="n" s="747">
-        <v>2.318195913031834</v>
-      </c>
-      <c r="G13" t="n" s="748">
-        <v>0.06092197714663349</v>
-      </c>
-      <c r="H13" t="n" s="749">
-        <v>0.059296053165333956</v>
-      </c>
-      <c r="I13" t="n" s="750">
-        <v>0.1393012133356189</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="738">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="743">
-        <v>0.6967828992460589</v>
-      </c>
-      <c r="C14" t="n" s="744">
-        <v>0.7069935905706466</v>
-      </c>
-      <c r="D14" t="n" s="745">
-        <v>0.8489600088694349</v>
-      </c>
-      <c r="E14" t="n" s="746">
-        <v>0.21141828648507077</v>
-      </c>
-      <c r="F14" t="n" s="747">
-        <v>2.412894625573402</v>
-      </c>
-      <c r="G14" t="n" s="748">
-        <v>0.058918275476190926</v>
-      </c>
-      <c r="H14" t="n" s="749">
-        <v>0.05363874768190952</v>
-      </c>
-      <c r="I14" t="n" s="750">
-        <v>0.1393012133356189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="738">
+      <c r="B16" t="n" s="744">
+        <v>0.6678208546929957</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.7413867303077406</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.8670513485231938</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.24158012407342314</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>2.8667776065395416</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.06142814805940825</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.07655860031678004</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>0.1357095952164575</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.7061853642086331</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.7733061370739963</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.8944474868913203</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.27485059400819717</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>3.4112354304289902</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.05460107901416913</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.07812267048131286</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>0.16753686802713974</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="743">
-        <v>0.6902429036997012</v>
-      </c>
-      <c r="C15" t="n" s="744">
-        <v>0.6969664452946369</v>
-      </c>
-      <c r="D15" t="n" s="745">
-        <v>0.8501137472004578</v>
-      </c>
-      <c r="E15" t="n" s="746">
-        <v>0.2035373271653883</v>
-      </c>
-      <c r="F15" t="n" s="747">
-        <v>2.2999645896385683</v>
-      </c>
-      <c r="G15" t="n" s="748">
-        <v>0.059800953557518896</v>
-      </c>
-      <c r="H15" t="n" s="749">
-        <v>0.0717173927090613</v>
-      </c>
-      <c r="I15" t="n" s="750">
-        <v>0.1280910104751838</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="738">
+      <c r="B18" t="n" s="744">
+        <v>0.673467042293366</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.755976202638138</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.8806974599343185</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.25607298500888875</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>3.0979609809001705</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.061139593115272055</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.08349827522319225</v>
+      </c>
+      <c r="I18" t="n" s="751">
+        <v>0.1357095952164575</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="743">
-        <v>0.6832000886403927</v>
-      </c>
-      <c r="C16" t="n" s="744">
-        <v>0.6905120715526375</v>
-      </c>
-      <c r="D16" t="n" s="745">
-        <v>0.8491712867024507</v>
-      </c>
-      <c r="E16" t="n" s="746">
-        <v>0.1986568631550289</v>
-      </c>
-      <c r="F16" t="n" s="747">
-        <v>2.231143796195202</v>
-      </c>
-      <c r="G16" t="n" s="748">
-        <v>0.06140811966487099</v>
-      </c>
-      <c r="H16" t="n" s="749">
-        <v>0.07332404422147194</v>
-      </c>
-      <c r="I16" t="n" s="750">
-        <v>0.10737314698895016</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="738">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="743">
-        <v>0.7120960778075718</v>
-      </c>
-      <c r="C17" t="n" s="744">
-        <v>0.7118215713191349</v>
-      </c>
-      <c r="D17" t="n" s="745">
-        <v>0.8251279507077238</v>
-      </c>
-      <c r="E17" t="n" s="746">
-        <v>0.21534932667943651</v>
-      </c>
-      <c r="F17" t="n" s="747">
-        <v>2.470072359605449</v>
-      </c>
-      <c r="G17" t="n" s="748">
-        <v>0.05566490158733714</v>
-      </c>
-      <c r="H17" t="n" s="749">
-        <v>0.05588918155862561</v>
-      </c>
-      <c r="I17" t="n" s="750">
-        <v>0.14856825407090837</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="738">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="743">
-        <v>0.7152304549453499</v>
-      </c>
-      <c r="C18" t="n" s="744">
-        <v>0.7184381200092307</v>
-      </c>
-      <c r="D18" t="n" s="745">
-        <v>0.8294701201406108</v>
-      </c>
-      <c r="E18" t="n" s="746">
-        <v>0.22088830611269505</v>
-      </c>
-      <c r="F18" t="n" s="747">
-        <v>2.5516171437439756</v>
-      </c>
-      <c r="G18" t="n" s="748">
-        <v>0.05533248227107614</v>
-      </c>
-      <c r="H18" t="n" s="749">
-        <v>0.05331450784688409</v>
-      </c>
-      <c r="I18" t="n" s="750">
-        <v>0.1516966497757556</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="738">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="743">
-        <v>0.7248807929716842</v>
-      </c>
-      <c r="C19" t="n" s="744">
-        <v>0.7294336348172012</v>
-      </c>
-      <c r="D19" t="n" s="745">
-        <v>0.8828830813692968</v>
-      </c>
-      <c r="E19" t="n" s="746">
-        <v>0.2305029253688303</v>
-      </c>
-      <c r="F19" t="n" s="747">
-        <v>2.695950896647425</v>
-      </c>
-      <c r="G19" t="n" s="748">
-        <v>0.0537615921397373</v>
-      </c>
-      <c r="H19" t="n" s="749">
-        <v>0.0733104562763442</v>
-      </c>
-      <c r="I19" t="n" s="750">
-        <v>0.16753686802713974</v>
+      <c r="B19" t="n" s="744">
+        <v>0.6526064322898095</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.7404263516198553</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.861938597532481</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.24066467981444864</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>2.852471182034253</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.06477569576201467</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.08017515362163732</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.1331670982451696</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="738">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="743">
-        <v>0.7040427571822647</v>
-      </c>
-      <c r="C20" t="n" s="744">
-        <v>0.7144353345345232</v>
-      </c>
-      <c r="D20" t="n" s="745">
-        <v>0.8692995735887021</v>
-      </c>
-      <c r="E20" t="n" s="746">
-        <v>0.21751608048288007</v>
-      </c>
-      <c r="F20" t="n" s="747">
-        <v>2.5018338083599296</v>
-      </c>
-      <c r="G20" t="n" s="748">
-        <v>0.05766827160409905</v>
-      </c>
-      <c r="H20" t="n" s="749">
-        <v>0.07537208045809288</v>
-      </c>
-      <c r="I20" t="n" s="750">
-        <v>0.1393012133356189</v>
+      <c r="A20" t="s" s="739">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="744">
+        <v>0.6575857565935219</v>
+      </c>
+      <c r="C20" t="n" s="745">
+        <v>0.7411712952881762</v>
+      </c>
+      <c r="D20" t="n" s="746">
+        <v>0.8635608384726892</v>
+      </c>
+      <c r="E20" t="n" s="747">
+        <v>0.24137437032120962</v>
+      </c>
+      <c r="F20" t="n" s="748">
+        <v>2.863559109927105</v>
+      </c>
+      <c r="G20" t="n" s="749">
+        <v>0.06365094267452524</v>
+      </c>
+      <c r="H20" t="n" s="750">
+        <v>0.0814523766292303</v>
+      </c>
+      <c r="I20" t="n" s="751">
+        <v>0.13053096784591084</v>
       </c>
     </row>
     <row r="21">
@@ -7675,292 +7855,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="754">
-        <v>30</v>
+      <c r="A23" t="s" s="755">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="768">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="768">
+      <c r="B24" t="s" s="769">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="768">
+      <c r="C24" t="s" s="769">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="768">
+      <c r="D24" t="s" s="769">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="768">
+      <c r="E24" t="s" s="769">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="768">
+      <c r="F24" t="s" s="769">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="769">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="768">
+      <c r="H24" t="s" s="769">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="764">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>61.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.5312780761419998</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.6804950881927818</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.7213702060161713</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.49740761832211744</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>0.24958982745138697</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>61.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.5307332039833021</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.6778803274298237</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.7169211508236427</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.39980278015292736</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>0.883052331838282</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>61.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.5179499015312812</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.6675073732261924</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.7061750767424595</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>0.39573551732062057</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>0.21311475409836064</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>0.8188356387448512</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="769">
+      <c r="B28" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C25" t="n" s="770">
-        <v>0.6616385177689885</v>
-      </c>
-      <c r="D25" t="n" s="771">
-        <v>0.660803370457439</v>
-      </c>
-      <c r="E25" t="n" s="772">
-        <v>0.6274841636649343</v>
-      </c>
-      <c r="F25" t="n" s="773">
-        <v>0.5453272364533173</v>
-      </c>
-      <c r="G25" t="n" s="774">
+      <c r="C28" t="n" s="771">
+        <v>0.38409577497819486</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.47207613544555255</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.3812578314924967</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.3556567063012092</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>0.9672131147540983</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.1795562228341584</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>61.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.5893871654514738</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.5903972996469764</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.5536681790682533</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.4348398529613328</v>
+      </c>
+      <c r="G29" t="n" s="775">
         <v>3.19672131147541</v>
       </c>
-      <c r="H25" t="n" s="775">
+      <c r="H29" t="n" s="776">
         <v>1.092698069476766</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="764">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="769">
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C26" t="n" s="770">
-        <v>0.6940132692690963</v>
-      </c>
-      <c r="D26" t="n" s="771">
-        <v>0.6841296082768271</v>
-      </c>
-      <c r="E26" t="n" s="772">
-        <v>0.6592095461250501</v>
-      </c>
-      <c r="F26" t="n" s="773">
-        <v>0.5695151959469308</v>
-      </c>
-      <c r="G26" t="n" s="774">
+      <c r="C30" t="n" s="771">
+        <v>0.5795116646570017</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.5701635890389429</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.5335641402246248</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.400049847115519</v>
+      </c>
+      <c r="G30" t="n" s="775">
         <v>3.622950819672131</v>
       </c>
-      <c r="H26" t="n" s="775">
+      <c r="H30" t="n" s="776">
         <v>1.226973708306057</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="764">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="769">
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C27" t="n" s="770">
-        <v>0.5651419151710682</v>
-      </c>
-      <c r="D27" t="n" s="771">
-        <v>0.5553755484699935</v>
-      </c>
-      <c r="E27" t="n" s="772">
-        <v>0.5443946750592552</v>
-      </c>
-      <c r="F27" t="n" s="773">
-        <v>0.4369509791936534</v>
-      </c>
-      <c r="G27" t="n" s="774">
-        <v>3.360655737704918</v>
-      </c>
-      <c r="H27" t="n" s="775">
-        <v>1.0333245196169158</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="764">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="769">
+      <c r="C31" t="n" s="771">
+        <v>0.4934958204409054</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.3578568455464703</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.24548891342393683</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.25371564052500745</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>1.180327868852459</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.4549707525274804</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C28" t="n" s="770">
-        <v>0.5514992748535783</v>
-      </c>
-      <c r="D28" t="n" s="771">
-        <v>0.511035594759082</v>
-      </c>
-      <c r="E28" t="n" s="772">
-        <v>0.497228968085645</v>
-      </c>
-      <c r="F28" t="n" s="773">
-        <v>0.3711291059107871</v>
-      </c>
-      <c r="G28" t="n" s="774">
-        <v>3.7704918032786887</v>
-      </c>
-      <c r="H28" t="n" s="775">
-        <v>1.3710512101176335</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="764">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="769">
+      <c r="C32" t="n" s="771">
+        <v>0.5844338084144578</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.4776812130722003</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.39504063088513575</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.38213196620982415</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>1.9344262295081966</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.3646593281721313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C29" t="n" s="770">
-        <v>0.5606340381818421</v>
-      </c>
-      <c r="D29" t="n" s="771">
-        <v>0.563997152650608</v>
-      </c>
-      <c r="E29" t="n" s="772">
-        <v>0.5164452501963981</v>
-      </c>
-      <c r="F29" t="n" s="773">
-        <v>0.4033344541204441</v>
-      </c>
-      <c r="G29" t="n" s="774">
+      <c r="C33" t="n" s="771">
+        <v>0.6366975102622242</v>
+      </c>
+      <c r="D33" t="n" s="772">
+        <v>0.5760052555333685</v>
+      </c>
+      <c r="E33" t="n" s="773">
+        <v>0.5352187698806562</v>
+      </c>
+      <c r="F33" t="n" s="774">
+        <v>0.4715940462486776</v>
+      </c>
+      <c r="G33" t="n" s="775">
         <v>1.5901639344262295</v>
       </c>
-      <c r="H29" t="n" s="775">
+      <c r="H33" t="n" s="776">
         <v>1.22986515765385</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="764">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="769">
+    <row r="34">
+      <c r="A34" t="s" s="765">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="770">
         <v>61.0</v>
       </c>
-      <c r="C30" t="n" s="770">
-        <v>0.5914142613524475</v>
-      </c>
-      <c r="D30" t="n" s="771">
-        <v>0.5967948066845047</v>
-      </c>
-      <c r="E30" t="n" s="772">
-        <v>0.5505632529988655</v>
-      </c>
-      <c r="F30" t="n" s="773">
-        <v>0.4454678245274575</v>
-      </c>
-      <c r="G30" t="n" s="774">
+      <c r="C34" t="n" s="771">
+        <v>0.6146723885559928</v>
+      </c>
+      <c r="D34" t="n" s="772">
+        <v>0.5714765524319894</v>
+      </c>
+      <c r="E34" t="n" s="773">
+        <v>0.5278910380915944</v>
+      </c>
+      <c r="F34" t="n" s="774">
+        <v>0.4492240385481165</v>
+      </c>
+      <c r="G34" t="n" s="775">
         <v>1.3442622950819672</v>
       </c>
-      <c r="H30" t="n" s="775">
+      <c r="H34" t="n" s="776">
         <v>1.1956204233456835</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="764">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="769">
-        <v>61.0</v>
-      </c>
-      <c r="C31" t="n" s="770">
-        <v>0.3807133755013482</v>
-      </c>
-      <c r="D31" t="n" s="771">
-        <v>0.4846182508314389</v>
-      </c>
-      <c r="E31" t="n" s="772">
-        <v>0.5078223504299019</v>
-      </c>
-      <c r="F31" t="n" s="773">
-        <v>0.2514578793793104</v>
-      </c>
-      <c r="G31" t="n" s="774">
-        <v>0.22950819672131148</v>
-      </c>
-      <c r="H31" t="n" s="775">
-        <v>0.883052331838282</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="764">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="769">
-        <v>61.0</v>
-      </c>
-      <c r="C32" t="n" s="770">
-        <v>0.34400879315440513</v>
-      </c>
-      <c r="D32" t="n" s="771">
-        <v>0.4473952468778651</v>
-      </c>
-      <c r="E32" t="n" s="772">
-        <v>0.467832087866373</v>
-      </c>
-      <c r="F32" t="n" s="773">
-        <v>0.2219667197014564</v>
-      </c>
-      <c r="G32" t="n" s="774">
-        <v>0.21311475409836064</v>
-      </c>
-      <c r="H32" t="n" s="775">
-        <v>0.8188356387448512</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="764">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="769">
-        <v>61.0</v>
-      </c>
-      <c r="C33" t="n" s="770">
-        <v>0.44668187315319946</v>
-      </c>
-      <c r="D33" t="n" s="771">
-        <v>0.38278316176443716</v>
-      </c>
-      <c r="E33" t="n" s="772">
-        <v>0.2653272119734069</v>
-      </c>
-      <c r="F33" t="n" s="773">
-        <v>0.23389109228919494</v>
-      </c>
-      <c r="G33" t="n" s="774">
-        <v>1.180327868852459</v>
-      </c>
-      <c r="H33" t="n" s="775">
-        <v>1.4549707525274804</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="764">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="769">
-        <v>61.0</v>
-      </c>
-      <c r="C34" t="n" s="770">
-        <v>0.5182838007660074</v>
-      </c>
-      <c r="D34" t="n" s="771">
-        <v>0.47005724977270186</v>
-      </c>
-      <c r="E34" t="n" s="772">
-        <v>0.3818507713289755</v>
-      </c>
-      <c r="F34" t="n" s="773">
-        <v>0.3321929151297194</v>
-      </c>
-      <c r="G34" t="n" s="774">
-        <v>1.9344262295081966</v>
-      </c>
-      <c r="H34" t="n" s="775">
-        <v>1.3646593281721313</v>
       </c>
     </row>
     <row r="35">
@@ -7974,291 +8154,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="779">
-        <v>36</v>
+      <c r="A37" t="s" s="780">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="793">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="793">
+      <c r="B38" t="s" s="794">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="793">
+      <c r="C38" t="s" s="794">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="793">
+      <c r="D38" t="s" s="794">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="793">
+      <c r="E38" t="s" s="794">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="793">
+      <c r="F38" t="s" s="794">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="793">
+      <c r="G38" t="s" s="794">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="794">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="789">
+      <c r="A39" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="795">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="795">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="794">
+      <c r="B42" t="n" s="795">
         <v>0.03278688524590164</v>
       </c>
-      <c r="C39" t="n" s="795">
+      <c r="C42" t="n" s="796">
+        <v>0.9672131147540983</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="C43" t="n" s="796">
         <v>0.08196721311475409</v>
       </c>
-      <c r="D39" t="n" s="796">
+      <c r="D43" t="n" s="797">
         <v>0.01639344262295082</v>
       </c>
-      <c r="E39" t="n" s="797">
+      <c r="E43" t="n" s="798">
         <v>0.4426229508196721</v>
       </c>
-      <c r="F39" t="n" s="798">
+      <c r="F43" t="n" s="799">
         <v>0.3770491803278688</v>
       </c>
-      <c r="G39" t="n" s="799">
+      <c r="G43" t="n" s="800">
         <v>0.04918032786885246</v>
       </c>
-      <c r="H39" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="789">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="794">
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="795">
         <v>0.03278688524590164</v>
       </c>
-      <c r="C40" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="796">
+      <c r="C44" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="797">
         <v>0.08196721311475409</v>
       </c>
-      <c r="E40" t="n" s="797">
+      <c r="E44" t="n" s="798">
         <v>0.4262295081967213</v>
       </c>
-      <c r="F40" t="n" s="798">
+      <c r="F44" t="n" s="799">
         <v>0.11475409836065574</v>
       </c>
-      <c r="G40" t="n" s="799">
+      <c r="G44" t="n" s="800">
         <v>0.3442622950819672</v>
       </c>
-      <c r="H40" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="789">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="794">
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="795">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="C45" t="n" s="796">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="D45" t="n" s="797">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F45" t="n" s="799">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="G45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="790">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="795">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="C46" t="n" s="796">
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="D46" t="n" s="797">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="E46" t="n" s="798">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="F46" t="n" s="799">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="G46" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="790">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="795">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="C47" t="n" s="796">
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="D47" t="n" s="797">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="E47" t="n" s="798">
+        <v>0.14754098360655737</v>
+      </c>
+      <c r="F47" t="n" s="799">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="G47" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="790">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="795">
+        <v>0.36065573770491804</v>
+      </c>
+      <c r="C48" t="n" s="796">
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="D48" t="n" s="797">
+        <v>0.39344262295081966</v>
+      </c>
+      <c r="E48" t="n" s="798">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="F48" t="n" s="799">
         <v>0.04918032786885246</v>
       </c>
-      <c r="C41" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n" s="796">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E41" t="n" s="797">
-        <v>0.45901639344262296</v>
-      </c>
-      <c r="F41" t="n" s="798">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="G41" t="n" s="799">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="H41" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="789">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="794">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="C42" t="n" s="795">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="D42" t="n" s="796">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="E42" t="n" s="797">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="F42" t="n" s="798">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="G42" t="n" s="799">
-        <v>0.45901639344262296</v>
-      </c>
-      <c r="H42" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="789">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="794">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="C43" t="n" s="795">
-        <v>0.13114754098360656</v>
-      </c>
-      <c r="D43" t="n" s="796">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="E43" t="n" s="797">
-        <v>0.14754098360655737</v>
-      </c>
-      <c r="F43" t="n" s="798">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="G43" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="789">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="794">
-        <v>0.36065573770491804</v>
-      </c>
-      <c r="C44" t="n" s="795">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="D44" t="n" s="796">
-        <v>0.39344262295081966</v>
-      </c>
-      <c r="E44" t="n" s="797">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="F44" t="n" s="798">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="G44" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="789">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="794">
-        <v>0.9344262295081968</v>
-      </c>
-      <c r="C45" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="797">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="F45" t="n" s="798">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="G45" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="789">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="794">
-        <v>0.9344262295081968</v>
-      </c>
-      <c r="C46" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="797">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="F46" t="n" s="798">
-        <v>0.01639344262295082</v>
-      </c>
-      <c r="G46" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H46" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="789">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="794">
-        <v>0.5245901639344263</v>
-      </c>
-      <c r="C47" t="n" s="795">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="D47" t="n" s="796">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="E47" t="n" s="797">
-        <v>0.14754098360655737</v>
-      </c>
-      <c r="F47" t="n" s="798">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="G47" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="789">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="794">
-        <v>0.22950819672131148</v>
-      </c>
-      <c r="C48" t="n" s="795">
-        <v>0.18032786885245902</v>
-      </c>
-      <c r="D48" t="n" s="796">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="E48" t="n" s="797">
-        <v>0.4098360655737705</v>
-      </c>
-      <c r="F48" t="n" s="798">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="G48" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="800">
+      <c r="G48" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
